--- a/歙县DMA文欣苑数据.xlsx
+++ b/歙县DMA文欣苑数据.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>黄山市苏扬置业有限公司(文欣苑)监控表</t>
   </si>
@@ -179,14 +179,42 @@
   </si>
   <si>
     <t>水量的单位以m³显示，当超过10000m³时，以“万m³”显示，小数点均是后面两位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进水表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commaddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文欣苑消防总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山市苏阳置业（文欣苑）20543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文欣苑户表总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +259,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5D5F63"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE48D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,13 +323,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF97D5D3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF97D5D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,19 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,11 +365,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,6 +395,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -337,16 +407,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,8 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12515850" y="1085850"/>
-          <a:ext cx="8343900" cy="4772025"/>
+          <a:off x="6697980" y="830580"/>
+          <a:ext cx="7520940" cy="4796790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,7 +503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,6 +577,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -541,6 +612,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,35 +788,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.21875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -808,7 +880,7 @@
       <c r="G4" s="2">
         <v>0.02</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -853,36 +925,36 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -893,27 +965,27 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3">
         <v>1290.21</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="12">
         <f>B9-B11</f>
         <v>1290.21</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1230.55</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="13">
         <f>E11/C9</f>
         <v>4.6225033134141016E-2</v>
       </c>
@@ -925,26 +997,26 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.02</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <f>E10+E11</f>
         <v>59.660000000000082</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="13">
         <f>F10/C9</f>
         <v>4.6240534486634018E-2</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="13"/>
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
@@ -953,21 +1025,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <f>C9-E9-E10</f>
         <v>59.640000000000079</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
@@ -976,7 +1048,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="10"/>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
@@ -985,27 +1057,27 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>0.06</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>45.12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <f>E11-E13</f>
         <v>14.520000000000081</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1016,14 +1088,14 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1032,26 +1104,26 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1062,27 +1134,27 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3">
         <v>1467.73</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="12">
         <f>B16-B18</f>
         <v>1467.73</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>1455</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="13">
         <f>E18/C16</f>
         <v>8.6596308585366651E-3</v>
       </c>
@@ -1094,43 +1166,43 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>0.02</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <f>E17+E18</f>
         <v>12.730000000000018</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="13">
         <f>F17/C16</f>
         <v>8.6732573429718126E-3</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <f>C16-E16-E17</f>
         <v>12.710000000000019</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1139,283 +1211,292 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>45.12</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <f>E18-E20</f>
         <v>-32.409999999999982</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3">
         <v>1486.1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="12">
         <f>B23-B25</f>
         <v>1486.1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>1468.34</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="13">
         <f>E25/C23</f>
         <v>1.1917098445595849E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>0.05</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <f>E24+E25</f>
         <v>17.759999999999991</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="13">
         <f>F24/C23</f>
         <v>1.1950743556961168E-2</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3">
         <v>0</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <f>C23-E23-E24</f>
         <v>17.70999999999999</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="3"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>45.12</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <f>E25-E27</f>
         <v>-27.410000000000007</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3">
         <v>1613.65</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="12">
         <f>B30-B32</f>
         <v>1613.65</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>1586.54</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="13">
         <f>E32/C30</f>
         <v>1.6788027143432669E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>0.02</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="12">
         <f>E31+E32</f>
         <v>27.110000000000127</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="13">
         <f>F31/C30</f>
         <v>1.6800421404889614E-2</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <f>C30-E30-E31</f>
         <v>27.090000000000128</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>45.12</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <f>E32-E34</f>
         <v>-18.02999999999987</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="D29:E29"/>
@@ -1432,15 +1513,6 @@
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1450,13 +1522,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1">
+      <c r="B3">
+        <v>18255954864</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1290.21</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1467.73</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1486.1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1613.65</v>
+      </c>
+      <c r="I3" s="15">
+        <v>882.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1">
+      <c r="B4">
+        <v>64809121745</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1">
+      <c r="B5">
+        <v>13965532491</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="15">
+        <v>30.55</v>
+      </c>
+      <c r="F5" s="15">
+        <v>25</v>
+      </c>
+      <c r="G5" s="15">
+        <v>91.34</v>
+      </c>
+      <c r="H5" s="15">
+        <v>27.54</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>4022</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1464,12 +1652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
